--- a/MyMojioWebsite/bin/com/mojio/xls/MyVehicles.xlsx
+++ b/MyMojioWebsite/bin/com/mojio/xls/MyVehicles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="155">
   <si>
     <t>TCID</t>
   </si>
@@ -225,24 +225,36 @@
     <t>vehicleNameId</t>
   </si>
   <si>
+    <t>TS008</t>
+  </si>
+  <si>
     <t>Clear the vehicle license plate field</t>
   </si>
   <si>
     <t>vehicleLicensePlateId</t>
   </si>
   <si>
+    <t>TS009</t>
+  </si>
+  <si>
     <t>Write vehicle name</t>
   </si>
   <si>
     <t>writeCurrentDateById</t>
   </si>
   <si>
+    <t>TS010</t>
+  </si>
+  <si>
     <t>Write text in license plate field</t>
   </si>
   <si>
     <t>col|Vehicle_licence_Plate</t>
   </si>
   <si>
+    <t>TS011</t>
+  </si>
+  <si>
     <t>Select Mojio ID from dropdown</t>
   </si>
   <si>
@@ -255,9 +267,15 @@
     <t>col|Mojio_Id</t>
   </si>
   <si>
+    <t>TS012</t>
+  </si>
+  <si>
     <t>vehicleEditSubmitId</t>
   </si>
   <si>
+    <t>TS013</t>
+  </si>
+  <si>
     <t>Verify the vehicle updated</t>
   </si>
   <si>
@@ -306,9 +324,6 @@
     <t>col|Status_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified STATUS -- Status </t>
-  </si>
-  <si>
     <t>Verify the Name column present</t>
   </si>
   <si>
@@ -318,9 +333,6 @@
     <t>col|Name_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified NAME -- Name </t>
-  </si>
-  <si>
     <t>Verify the License Plate column present</t>
   </si>
   <si>
@@ -330,9 +342,6 @@
     <t>col|License_Plate_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified LICENSE PLATE -- License Plate </t>
-  </si>
-  <si>
     <t>Verify the Last Location column present</t>
   </si>
   <si>
@@ -342,9 +351,6 @@
     <t>col|Last_Location_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified LAST LOCATION -- Last Location </t>
-  </si>
-  <si>
     <t>Verify the Last Contact time column present</t>
   </si>
   <si>
@@ -354,9 +360,6 @@
     <t>col|Last_Contact_Time_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified LAST CONTACT TIME -- Last Contact Time </t>
-  </si>
-  <si>
     <t>allVehicleStatusColumn</t>
   </si>
   <si>
@@ -379,9 +382,6 @@
   </si>
   <si>
     <t>col|Load_Vehicle_Column</t>
-  </si>
-  <si>
-    <t>FAIL -- text not verified LOAD VEHICLE -- Load Vehicle </t>
   </si>
   <si>
     <t>Close the browser</t>
@@ -496,9 +496,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="GENERAL"/>
+  <numFmts count="1">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -626,7 +625,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -646,11 +645,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -759,10 +758,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="30.280612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -881,14 +880,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="22.3112244897959" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="21.5" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="20.4285714285714" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="22.1734693877551" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="25.0" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="30.3724489795918" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="18.4132653061224" collapsed="true"/>
-    <col min="8" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -955,20 +954,20 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G2" activeCellId="0" pane="topLeft" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="21.1020408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="18.5459183673469" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="19.8877551020408" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="21.6326530612245" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="25.6683673469388" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="21.5" collapsed="true"/>
-    <col min="8" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -1041,21 +1040,21 @@
   </sheetPr>
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H76" activeCellId="0" pane="topLeft" sqref="H76"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C92" activeCellId="0" pane="topLeft" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="7.0" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="39.3826530612245" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="33.3316326530612" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="35.3520408163265" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="33.6020408163265" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="14.2448979591837" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.3520408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.6020408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1356,7 +1355,9 @@
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1377,9 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1399,9 @@
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="8" t="s">
         <v>52</v>
       </c>
@@ -1416,7 +1421,9 @@
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="8" t="s">
         <v>57</v>
       </c>
@@ -1436,14 +1443,16 @@
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="8"/>
@@ -1456,7 +1465,9 @@
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" s="8" t="s">
         <v>61</v>
       </c>
@@ -1476,7 +1487,9 @@
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="8" t="s">
         <v>63</v>
       </c>
@@ -1487,7 +1500,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="0" t="s">
         <v>23</v>
       </c>
@@ -1496,18 +1509,20 @@
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="0" t="s">
         <v>23</v>
       </c>
@@ -1516,18 +1531,20 @@
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="C22" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="0" t="s">
         <v>23</v>
       </c>
@@ -1536,20 +1553,22 @@
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="0" t="s">
         <v>23</v>
       </c>
@@ -1558,20 +1577,22 @@
       <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="C24" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="0" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1601,9 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C25" s="8" t="s">
         <v>43</v>
       </c>
@@ -1588,10 +1611,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="0" t="s">
         <v>23</v>
       </c>
@@ -1600,27 +1623,31 @@
       <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="C26" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
@@ -1640,7 +1667,9 @@
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
@@ -1660,7 +1689,9 @@
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1680,7 +1711,9 @@
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1700,7 +1733,9 @@
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C31" s="5" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1755,9 @@
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C32" s="5" t="s">
         <v>61</v>
       </c>
@@ -1740,7 +1777,9 @@
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C33" s="5" t="s">
         <v>63</v>
       </c>
@@ -1760,15 +1799,17 @@
       <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C34" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="11"/>
@@ -1780,12 +1821,14 @@
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="C35" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>65</v>
@@ -1800,18 +1843,20 @@
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C36" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="0" t="s">
@@ -1822,18 +1867,20 @@
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="0" t="s">
@@ -1844,15 +1891,17 @@
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="11"/>
@@ -1864,16 +1913,18 @@
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="0" t="s">
@@ -1884,7 +1935,9 @@
       <c r="A40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1957,9 @@
       <c r="A41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
@@ -1924,7 +1979,9 @@
       <c r="A42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C42" s="7" t="s">
         <v>52</v>
       </c>
@@ -1944,7 +2001,9 @@
       <c r="A43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>57</v>
       </c>
@@ -1964,7 +2023,9 @@
       <c r="A44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +2033,7 @@
         <v>44</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1984,7 +2045,9 @@
       <c r="A45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C45" s="7" t="s">
         <v>61</v>
       </c>
@@ -2004,7 +2067,9 @@
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="C46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2024,15 +2089,17 @@
       <c r="A47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C47" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="13"/>
@@ -2044,12 +2111,14 @@
       <c r="A48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C48" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>65</v>
@@ -2064,18 +2133,20 @@
       <c r="A49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C49" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="0" t="s">
@@ -2086,18 +2157,20 @@
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="C50" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="0" t="s">
@@ -2108,7 +2181,9 @@
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C51" s="7" t="s">
         <v>43</v>
       </c>
@@ -2116,7 +2191,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -2128,27 +2203,31 @@
       <c r="A52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C52" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C53" s="8" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2247,9 @@
       <c r="A54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C54" s="8" t="s">
         <v>49</v>
       </c>
@@ -2188,7 +2269,9 @@
       <c r="A55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C55" s="8" t="s">
         <v>52</v>
       </c>
@@ -2208,7 +2291,9 @@
       <c r="A56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C56" s="8" t="s">
         <v>57</v>
       </c>
@@ -2228,15 +2313,17 @@
       <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C57" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>84</v>
+      <c r="E57" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -2248,7 +2335,9 @@
       <c r="A58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C58" s="8" t="s">
         <v>61</v>
       </c>
@@ -2268,7 +2357,9 @@
       <c r="A59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C59" s="8" t="s">
         <v>63</v>
       </c>
@@ -2288,15 +2379,17 @@
       <c r="A60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="C60" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -2308,12 +2401,14 @@
       <c r="A61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="C61" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>65</v>
@@ -2328,18 +2423,20 @@
       <c r="A62" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="C62" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="0" t="s">
@@ -2350,18 +2447,20 @@
       <c r="A63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="C63" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="0" t="s">
@@ -2372,15 +2471,17 @@
       <c r="A64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C64" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -2392,16 +2493,18 @@
       <c r="A65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="C65" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="0" t="s">
@@ -2412,7 +2515,9 @@
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
       </c>
@@ -2432,7 +2537,9 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C67" s="5" t="s">
         <v>49</v>
       </c>
@@ -2452,7 +2559,9 @@
       <c r="A68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C68" s="5" t="s">
         <v>52</v>
       </c>
@@ -2472,7 +2581,9 @@
       <c r="A69" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C69" s="5" t="s">
         <v>57</v>
       </c>
@@ -2492,15 +2603,17 @@
       <c r="A70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C70" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="11"/>
@@ -2512,16 +2625,18 @@
       <c r="A71" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C71" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="0" t="s">
@@ -2532,7 +2647,9 @@
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C72" s="7" t="s">
         <v>25</v>
       </c>
@@ -2552,7 +2669,9 @@
       <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C73" s="7" t="s">
         <v>49</v>
       </c>
@@ -2572,7 +2691,9 @@
       <c r="A74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C74" s="7" t="s">
         <v>52</v>
       </c>
@@ -2592,7 +2713,9 @@
       <c r="A75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C75" s="7" t="s">
         <v>57</v>
       </c>
@@ -2612,18 +2735,20 @@
       <c r="A76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="13"/>
+      <c r="B76" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C76" s="13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="0" t="s">
@@ -2634,18 +2759,20 @@
       <c r="A77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="13"/>
+      <c r="B77" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C77" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="0" t="s">
@@ -2656,18 +2783,20 @@
       <c r="A78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="13"/>
+      <c r="B78" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="C78" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="0" t="s">
@@ -2678,18 +2807,20 @@
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C79" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="0" t="s">
@@ -2700,18 +2831,20 @@
       <c r="A80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C80" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="0" t="s">
@@ -2722,7 +2855,9 @@
       <c r="A81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C81" s="8" t="s">
         <v>25</v>
       </c>
@@ -2733,7 +2868,7 @@
       <c r="F81" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G81" s="9"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="0" t="s">
         <v>23</v>
       </c>
@@ -2742,7 +2877,9 @@
       <c r="A82" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C82" s="8" t="s">
         <v>49</v>
       </c>
@@ -2753,7 +2890,7 @@
         <v>51</v>
       </c>
       <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="0" t="s">
         <v>23</v>
       </c>
@@ -2762,7 +2899,9 @@
       <c r="A83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C83" s="8" t="s">
         <v>52</v>
       </c>
@@ -2773,7 +2912,7 @@
         <v>53</v>
       </c>
       <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="0" t="s">
         <v>23</v>
       </c>
@@ -2782,7 +2921,9 @@
       <c r="A84" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C84" s="8" t="s">
         <v>57</v>
       </c>
@@ -2793,7 +2934,7 @@
       <c r="F84" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="9"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="0" t="s">
         <v>23</v>
       </c>
@@ -2802,20 +2943,22 @@
       <c r="A85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9" t="s">
-        <v>89</v>
+      <c r="B85" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="10"/>
       <c r="H85" s="0" t="s">
         <v>23</v>
       </c>
@@ -2824,20 +2967,22 @@
       <c r="A86" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9" t="s">
-        <v>94</v>
+      <c r="B86" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" s="10"/>
       <c r="H86" s="0" t="s">
         <v>23</v>
       </c>
@@ -2846,20 +2991,22 @@
       <c r="A87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9" t="s">
-        <v>98</v>
+      <c r="B87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="10"/>
       <c r="H87" s="0" t="s">
         <v>23</v>
       </c>
@@ -2868,20 +3015,22 @@
       <c r="A88" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9" t="s">
-        <v>102</v>
+      <c r="B88" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" s="10"/>
       <c r="H88" s="0" t="s">
         <v>23</v>
       </c>
@@ -2890,20 +3039,22 @@
       <c r="A89" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9" t="s">
-        <v>106</v>
+      <c r="B89" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89" s="10"/>
       <c r="H89" s="0" t="s">
         <v>23</v>
       </c>
@@ -2912,20 +3063,22 @@
       <c r="A90" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9" t="s">
-        <v>115</v>
+      <c r="B90" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F90" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="9"/>
+      <c r="F90" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90" s="10"/>
       <c r="H90" s="0" t="s">
         <v>23</v>
       </c>
@@ -2934,16 +3087,18 @@
       <c r="A91" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="0" t="s">
         <v>23</v>
       </c>
@@ -2972,12 +3127,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="27.0" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -3038,9 +3193,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="36.9948979591837" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="18.8520408163265" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -3083,13 +3238,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.8673469387755" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="22.3112244897959" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="22.1734693877551" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="13.7040816326531" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -3156,13 +3311,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.515306122449" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="21.5" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="22.3112244897959" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="13.030612244898" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="19.484693877551" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="27.5561224489796" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.484693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -3235,12 +3390,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="21.3622448979592" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.8673469387755" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="22.0408163265306" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="19.3469387755102" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="27.9540816326531" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -3307,13 +3462,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.2551020408163" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.4591836734694" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="12.3673469387755" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="26.7448979591837" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="30.3724489795918" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -3386,10 +3541,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="79.030612244898" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="17.3316326530612" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
